--- a/transaction/untitled.xlsx
+++ b/transaction/untitled.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,7 +481,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-06-06 09:00:32</t>
+          <t>2025-06-06 09:00:21</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -495,7 +495,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>3340</v>
+        <v>3341</v>
       </c>
       <c r="F2" t="n">
         <v>100</v>
@@ -509,7 +509,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-06-06 09:00:44</t>
+          <t>2025-06-06 09:00:52</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2642.5</v>
+        <v>2640.5</v>
       </c>
       <c r="F3" t="n">
         <v>100</v>
@@ -537,12 +537,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-06-06 09:02:05</t>
+          <t>2025-06-06 09:44:42</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>7011</t>
+          <t>7203</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -551,13 +551,13 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>3361</v>
+        <v>2654</v>
       </c>
       <c r="F4" t="n">
         <v>100</v>
       </c>
       <c r="G4" t="n">
-        <v>2100</v>
+        <v>1350</v>
       </c>
       <c r="H4" t="inlineStr"/>
     </row>
@@ -567,29 +567,87 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-06-06 09:02:13</t>
+          <t>2025-06-06 09:46:00</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>7203</t>
+          <t>8306</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>売埋</t>
+          <t>買建</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>2650</v>
+        <v>1970</v>
       </c>
       <c r="F5" t="n">
         <v>100</v>
       </c>
-      <c r="G5" t="n">
-        <v>750</v>
-      </c>
+      <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2025-06-06 09:48:51</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>7011</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>売埋</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>3417</v>
+      </c>
+      <c r="F6" t="n">
+        <v>100</v>
+      </c>
+      <c r="G6" t="n">
+        <v>7600</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2025-06-06 09:49:18</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>8306</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>売埋</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>1967.5</v>
+      </c>
+      <c r="F7" t="n">
+        <v>100</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-250</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
